--- a/doc/1St_Project_요구명세서_v1.0.0.xlsx
+++ b/doc/1St_Project_요구명세서_v1.0.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\todolist\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\todolist\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
   <si>
     <t xml:space="preserve"> SEARCH01</t>
   </si>
@@ -73,9 +73,6 @@
     <t>LSIT01-REDIRECT01</t>
   </si>
   <si>
-    <t>MODIFY01-REDIRECT01</t>
-  </si>
-  <si>
     <t>DELETE01-PRINT01</t>
   </si>
   <si>
@@ -378,6 +375,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>LIST 검색 기능</t>
     </r>
@@ -402,6 +401,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>버튼 클릭시 insert페이지로 이동</t>
     </r>
@@ -500,6 +501,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -556,6 +559,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>주의 메시지</t>
     </r>
@@ -574,6 +579,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 한번 삭제한 리스트는 복구가 불가능 합니다.
@@ -594,6 +601,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -740,12 +749,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>- 검색 일자 출력
-- 달성률(%) 출력
-&gt; 기능 : 리스트 페이지에서 체크 표시된 항목을 기준으로 %계산하여 출력 됨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>주간/월간 통계로 이동</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -777,6 +780,89 @@
 &gt; 59% ~ 40% : orange
 &gt; 39% ~20% : red
 &gt; 19% ~ 0% : gray</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>PDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>01-REDIRECT01</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UPDATE01-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>DESIGN01</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>하단 고양이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이미지</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이미지 클릭시 사이즈 애니메이션 효과</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 검색 일자 출력
+&gt;검색 일자 돋보기 img 출력
+- 달성률(%) 출력
+&gt; 기능 : 리스트 페이지에서 체크 표시된 항목을 기준으로 %계산하여 출력 됨</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -957,7 +1043,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1060,6 +1146,174 @@
     <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1069,182 +1323,32 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1429,7 +1533,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1438,7 +1542,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1752,10 +1856,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:M50"/>
+  <dimension ref="B3:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1766,7 +1870,7 @@
     <col min="4" max="4" width="22.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="31.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="75.5" style="60" customWidth="1"/>
+    <col min="7" max="7" width="75.5" style="41" customWidth="1"/>
     <col min="8" max="8" width="25.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="21" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="1" customWidth="1"/>
@@ -1776,258 +1880,258 @@
   <sheetData>
     <row r="3" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" s="2" customFormat="1" ht="191.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="J4" s="43"/>
+      <c r="K4" s="43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" s="2" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" s="2" customFormat="1" ht="191.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="62" t="s">
+      <c r="F5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" s="2" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="2:13" s="2" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="H6" s="20"/>
-      <c r="I6" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="I6" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>91</v>
+        <v>44</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>90</v>
       </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="62">
+      <c r="I7" s="42">
         <v>1</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="2:13" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" s="20"/>
-      <c r="I8" s="62" t="s">
-        <v>24</v>
+      <c r="I8" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="52" t="s">
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>84</v>
-      </c>
       <c r="H9" s="20"/>
-      <c r="I9" s="62" t="s">
-        <v>24</v>
+      <c r="I9" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="53" t="s">
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46">
+        <v>1</v>
+      </c>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="2:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67">
+      <c r="H11" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="88">
         <v>1</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="2:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="38">
-        <v>1</v>
-      </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="36" t="s">
+      <c r="J11" s="90"/>
+      <c r="K11" s="92" t="s">
         <v>2</v>
       </c>
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+    </row>
+    <row r="13" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>4</v>
@@ -2040,19 +2144,19 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="69" t="s">
-        <v>94</v>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="48" t="s">
+        <v>93</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="24">
@@ -2062,19 +2166,19 @@
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="69" t="s">
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="69" t="s">
+      <c r="G15" s="50" t="s">
         <v>96</v>
-      </c>
-      <c r="G15" s="71" t="s">
-        <v>97</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="24">
@@ -2084,26 +2188,26 @@
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="2:13" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>65</v>
+      <c r="B16" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>64</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="25">
         <v>1</v>
@@ -2112,22 +2216,22 @@
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="2:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>53</v>
+        <v>33</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>52</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" s="25">
         <v>1</v>
@@ -2136,105 +2240,103 @@
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="46" t="s">
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="71"/>
+      <c r="I18" s="69">
+        <v>1</v>
+      </c>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+    </row>
+    <row r="19" spans="2:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+    </row>
+    <row r="20" spans="2:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="100" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="2:11" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="48">
-        <v>1</v>
-      </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-    </row>
-    <row r="19" spans="2:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-    </row>
-    <row r="20" spans="2:11" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="26">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="4"/>
       <c r="I21" s="26">
         <v>1</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="2:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="76"/>
       <c r="C22" s="76"/>
       <c r="D22" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="72" t="s">
-        <v>101</v>
+        <v>66</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>99</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="26">
@@ -2243,42 +2345,42 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="76"/>
       <c r="C23" s="76"/>
-      <c r="D23" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="73" t="s">
-        <v>104</v>
+      <c r="D23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>100</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="2:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="78" t="s">
+    <row r="24" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="74" t="s">
+      <c r="G24" s="52" t="s">
         <v>103</v>
-      </c>
-      <c r="G24" s="73" t="s">
-        <v>106</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="26">
@@ -2287,70 +2389,70 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="2:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="B25" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" s="27">
-        <v>1</v>
-      </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
+    <row r="25" spans="2:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="26">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="2:11" ht="99" x14ac:dyDescent="0.3">
+      <c r="B26" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>60</v>
+      </c>
       <c r="D26" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="G26" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="I26" s="27">
         <v>1</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="2:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
+    <row r="27" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="27">
@@ -2359,240 +2461,257 @@
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="79" t="s">
-        <v>109</v>
+    <row r="28" spans="2:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="2:11" ht="132" x14ac:dyDescent="0.3">
-      <c r="B29" s="50" t="s">
+    <row r="29" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="27">
+        <v>2</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="2:11" ht="132" x14ac:dyDescent="0.3">
+      <c r="B30" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C30" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="31" t="s">
+      <c r="E30" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="33">
-        <v>2</v>
-      </c>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-    </row>
-    <row r="30" spans="2:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="30"/>
+      <c r="H30" s="32" t="s">
+        <v>67</v>
+      </c>
       <c r="I30" s="33">
         <v>2</v>
       </c>
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
     </row>
-    <row r="31" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="84" t="s">
+    <row r="31" spans="2:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="30"/>
+      <c r="I31" s="33">
+        <v>2</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+    </row>
+    <row r="32" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="84"/>
-      <c r="I31" s="86">
+      <c r="H32" s="57"/>
+      <c r="I32" s="59">
         <v>2</v>
       </c>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-    </row>
-    <row r="32" spans="2:11" ht="147" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="90" t="s">
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="2:11" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="89" t="s">
+      <c r="E33" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="89" t="s">
+      <c r="G33" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="61">
+        <v>2</v>
+      </c>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+    </row>
+    <row r="34" spans="2:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="92" t="s">
+      <c r="E34" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="61">
+        <v>2</v>
+      </c>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+    </row>
+    <row r="35" spans="2:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="61"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+    </row>
+    <row r="36" spans="2:11" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="H32" s="93" t="s">
+      <c r="H36" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="61"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+    </row>
+    <row r="37" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="I32" s="88">
-        <v>2</v>
-      </c>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-    </row>
-    <row r="33" spans="2:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="I33" s="88">
-        <v>2</v>
-      </c>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-    </row>
-    <row r="34" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="89" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="89" t="s">
+      <c r="E37" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="92" t="s">
+      <c r="G37" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="H34" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="I34" s="88"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-    </row>
-    <row r="35" spans="2:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="89" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" s="88"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-    </row>
-    <row r="36" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="89" t="s">
+      <c r="H37" s="60"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+    </row>
+    <row r="38" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="G36" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-    </row>
-    <row r="37" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="89" t="s">
+      <c r="E38" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="89" t="s">
+      <c r="G38" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="G37" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E39" s="1"/>
@@ -2654,38 +2773,43 @@
       <c r="G50" s="1"/>
       <c r="I50" s="1"/>
     </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/doc/1St_Project_요구명세서_v1.0.0.xlsx
+++ b/doc/1St_Project_요구명세서_v1.0.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\todolist\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\todolist\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="135">
   <si>
     <t xml:space="preserve"> SEARCH01</t>
   </si>
@@ -193,13 +193,6 @@
     <t>UPDATE01-EXECUTE01</t>
   </si>
   <si>
-    <t xml:space="preserve">
-- 확인 버튼으로 제어 가능하게 구현
-- 해당 LIST 정보를 DB에서 물리적 삭제
-- 삭제 완료 후 리스트 페이지로 이동
-</t>
-  </si>
-  <si>
     <t>리스트 페이지로 이동</t>
   </si>
   <si>
@@ -273,12 +266,6 @@
   </si>
   <si>
     <t>검색 페이지 출력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- x 이미지 버튼으로 제어 가능하게 구현
-- 버튼을 클릭 시 상세 페이지로 이동
-</t>
   </si>
   <si>
     <t xml:space="preserve">-점을 누를시 다른 페이지로 이동
@@ -863,6 +850,45 @@
 &gt;검색 일자 돋보기 img 출력
 - 달성률(%) 출력
 &gt; 기능 : 리스트 페이지에서 체크 표시된 항목을 기준으로 %계산하여 출력 됨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 취소 버튼 생성
+- 버튼을 클릭 시 상세 페이지로 이동
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+- 확인 버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 생성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+- 해당 LIST 정보를 DB에서 물리적 삭제
+- 삭제 완료 후 리스트 페이지로 이동
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 : hover 애니메이션</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1043,7 +1069,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1349,6 +1375,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1858,8 +1890,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="D26" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1880,16 +1912,16 @@
   <sheetData>
     <row r="3" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>22</v>
@@ -1898,10 +1930,10 @@
         <v>17</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>16</v>
@@ -1912,10 +1944,10 @@
     </row>
     <row r="4" spans="2:13" s="2" customFormat="1" ht="191.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>46</v>
@@ -1927,7 +1959,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>47</v>
@@ -1937,14 +1969,14 @@
       </c>
       <c r="J4" s="43"/>
       <c r="K4" s="43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:13" s="2" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="94"/>
       <c r="C5" s="94"/>
       <c r="D5" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>19</v>
@@ -1953,7 +1985,7 @@
         <v>38</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>40</v>
@@ -1999,14 +2031,16 @@
         <v>44</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="42">
         <v>1</v>
       </c>
       <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
+      <c r="K7" s="43" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="2:13" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="94"/>
@@ -2018,10 +2052,10 @@
         <v>19</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="42" t="s">
@@ -2029,23 +2063,23 @@
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="42" t="s">
@@ -2059,16 +2093,16 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>86</v>
-      </c>
       <c r="G10" s="39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="46">
@@ -2083,7 +2117,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="90" t="s">
         <v>7</v>
@@ -2095,10 +2129,10 @@
         <v>31</v>
       </c>
       <c r="G11" s="96" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H11" s="92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="88">
         <v>1</v>
@@ -2141,13 +2175,15 @@
         <v>1</v>
       </c>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="102" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="14" spans="2:13" ht="66" x14ac:dyDescent="0.3">
       <c r="B14" s="95"/>
       <c r="C14" s="95"/>
       <c r="D14" s="48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>19</v>
@@ -2156,46 +2192,50 @@
         <v>36</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="24">
         <v>1</v>
       </c>
       <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="K14" s="48" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="15" spans="2:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="91"/>
       <c r="C15" s="91"/>
       <c r="D15" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="50" t="s">
         <v>94</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>96</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="24">
         <v>1</v>
       </c>
       <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="K15" s="48" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="2:13" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="85" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>19</v>
@@ -2228,7 +2268,7 @@
         <v>33</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>45</v>
@@ -2237,13 +2277,15 @@
         <v>1</v>
       </c>
       <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="K17" s="103" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="86"/>
       <c r="C18" s="86"/>
       <c r="D18" s="98" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>19</v>
@@ -2259,7 +2301,9 @@
         <v>1</v>
       </c>
       <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
+      <c r="K18" s="98" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="19" spans="2:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="86"/>
@@ -2277,16 +2321,16 @@
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
       <c r="D20" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="101" t="s">
         <v>129</v>
-      </c>
-      <c r="E20" s="100" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="100" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="101" t="s">
-        <v>131</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="35"/>
@@ -2298,7 +2342,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
@@ -2310,7 +2354,7 @@
         <v>35</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>20</v>
@@ -2320,7 +2364,7 @@
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="66" customHeight="1" x14ac:dyDescent="0.3">
@@ -2333,10 +2377,10 @@
         <v>19</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="26">
@@ -2355,10 +2399,10 @@
         <v>19</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="26">
@@ -2371,16 +2415,16 @@
       <c r="B24" s="76"/>
       <c r="C24" s="76"/>
       <c r="D24" s="53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E24" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="52" t="s">
         <v>101</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>103</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="26">
@@ -2393,16 +2437,16 @@
       <c r="B25" s="77"/>
       <c r="C25" s="77"/>
       <c r="D25" s="53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F25" s="53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="26">
@@ -2416,7 +2460,7 @@
         <v>34</v>
       </c>
       <c r="C26" s="78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>12</v>
@@ -2428,10 +2472,10 @@
         <v>32</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I26" s="27">
         <v>1</v>
@@ -2451,15 +2495,17 @@
       <c r="F27" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="15" t="s">
-        <v>49</v>
+      <c r="G27" s="55" t="s">
+        <v>133</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="27">
         <v>1</v>
       </c>
       <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="K27" s="56" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="28" spans="2:11" ht="66" x14ac:dyDescent="0.3">
       <c r="B28" s="79"/>
@@ -2473,30 +2519,32 @@
       <c r="F28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>70</v>
+      <c r="G28" s="55" t="s">
+        <v>132</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="27">
         <v>1</v>
       </c>
       <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="K28" s="56" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="29" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="80"/>
       <c r="C29" s="80"/>
       <c r="D29" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="27">
@@ -2510,22 +2558,22 @@
         <v>0</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>21</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G30" s="31" t="s">
         <v>3</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I30" s="33">
         <v>2</v>
@@ -2537,16 +2585,16 @@
       <c r="B31" s="74"/>
       <c r="C31" s="74"/>
       <c r="D31" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H31" s="30"/>
       <c r="I31" s="33">
@@ -2559,16 +2607,16 @@
       <c r="B32" s="74"/>
       <c r="C32" s="74"/>
       <c r="D32" s="57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E32" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H32" s="57"/>
       <c r="I32" s="59">
@@ -2579,25 +2627,25 @@
     </row>
     <row r="33" spans="2:11" ht="147" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="62" t="s">
-        <v>112</v>
-      </c>
       <c r="G33" s="64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H33" s="65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I33" s="61">
         <v>2</v>
@@ -2609,19 +2657,19 @@
       <c r="B34" s="67"/>
       <c r="C34" s="67"/>
       <c r="D34" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="62" t="s">
+      <c r="H34" s="65" t="s">
         <v>114</v>
-      </c>
-      <c r="G34" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="H34" s="65" t="s">
-        <v>116</v>
       </c>
       <c r="I34" s="61">
         <v>2</v>
@@ -2633,19 +2681,19 @@
       <c r="B35" s="67"/>
       <c r="C35" s="67"/>
       <c r="D35" s="62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E35" s="63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F35" s="62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G35" s="64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H35" s="65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I35" s="61"/>
       <c r="J35" s="60"/>
@@ -2655,19 +2703,19 @@
       <c r="B36" s="67"/>
       <c r="C36" s="67"/>
       <c r="D36" s="62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E36" s="63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F36" s="62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G36" s="64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H36" s="65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I36" s="61"/>
       <c r="J36" s="60"/>
@@ -2677,16 +2725,16 @@
       <c r="B37" s="67"/>
       <c r="C37" s="67"/>
       <c r="D37" s="62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F37" s="62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G37" s="64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H37" s="60"/>
       <c r="I37" s="61"/>
@@ -2697,16 +2745,16 @@
       <c r="B38" s="68"/>
       <c r="C38" s="68"/>
       <c r="D38" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="64" t="s">
         <v>118</v>
-      </c>
-      <c r="E38" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38" s="64" t="s">
-        <v>120</v>
       </c>
       <c r="H38" s="60"/>
       <c r="I38" s="61"/>

--- a/doc/1St_Project_요구명세서_v1.0.0.xlsx
+++ b/doc/1St_Project_요구명세서_v1.0.0.xlsx
@@ -9,18 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="14025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="133">
   <si>
     <t xml:space="preserve"> SEARCH01</t>
   </si>
@@ -185,16 +184,10 @@
 </t>
   </si>
   <si>
-    <t>검색 페이지 출력</t>
-  </si>
-  <si>
     <t>UPDATE01-PRINT01</t>
   </si>
   <si>
     <t>LIST01- SEARCH01</t>
-  </si>
-  <si>
-    <t>- 메인으로 클릭시 list page로 이동</t>
   </si>
   <si>
     <t xml:space="preserve"> SEARCH01-REDIRECT01</t>
@@ -575,6 +568,66 @@
   <si>
     <t xml:space="preserve">
 통계페이지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEARCH02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자별 검색 페이지 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 페이지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEARCH02-PRINT01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력별 검색 페이지 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 검색된 표시 정보를 출력
+- 정렬 기준
+&gt; 검색 내용 
+&gt; 수행 완료 된 LIST는 취소선 출력 및 체크무늬 노란색
+&gt; 수행 미완료 LIST는 흰색 체크 무늬 출력
+- 읽기 전용
+- 페이징 처리
+&gt; 숫자로 출력
+&gt; 5페이지 이상일 경우 &lt;&lt; : 이전 , &gt;&gt; 다음 버튼 생성
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEARCH02-REDIRECT01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 메인으로 버튼 생성 
+&gt; 버튼 클릭 시 list page로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEARCH02-PAGING</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 기능</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 페이지를 숫자로 표시
+&gt; 버튼 생성
+&gt; 클릭 시 해당 페이지로 이동</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +680,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,6 +753,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -767,7 +826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -930,16 +989,70 @@
     <xf numFmtId="176" fontId="1" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -957,71 +1070,38 @@
     <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1536,10 +1616,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:M42"/>
+  <dimension ref="B2:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1592,22 +1672,22 @@
     </row>
     <row r="3" spans="2:13" s="23" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="E3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="28" t="s">
         <v>77</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="19">
@@ -1617,10 +1697,10 @@
       <c r="K3" s="18"/>
     </row>
     <row r="4" spans="2:13" ht="371.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="54" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -1633,10 +1713,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>18</v>
@@ -1645,10 +1725,10 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>14</v>
@@ -1657,10 +1737,10 @@
         <v>32</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I5" s="33" t="s">
         <v>19</v>
@@ -1669,8 +1749,8 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="2:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
@@ -1678,10 +1758,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="11" t="s">
@@ -1691,8 +1771,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
@@ -1703,7 +1783,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="11">
@@ -1713,8 +1793,8 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="2:13" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
@@ -1725,7 +1805,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="11" t="s">
@@ -1735,19 +1815,19 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="2:13" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="31" t="s">
         <v>61</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>63</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="11" t="s">
@@ -1758,19 +1838,19 @@
       <c r="M9" s="25"/>
     </row>
     <row r="10" spans="2:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="37">
@@ -1781,49 +1861,49 @@
       <c r="M10" s="26"/>
     </row>
     <row r="11" spans="2:13" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="73">
+      <c r="G11" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="68">
         <v>1</v>
       </c>
-      <c r="J11" s="75"/>
-      <c r="K11" s="77"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="59"/>
       <c r="M11" s="26"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="15" t="s">
         <v>5</v>
       </c>
@@ -1834,7 +1914,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="17">
@@ -1844,10 +1924,10 @@
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>14</v>
@@ -1856,7 +1936,7 @@
         <v>30</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="40">
@@ -1866,19 +1946,19 @@
       <c r="K14" s="38"/>
     </row>
     <row r="15" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="40">
@@ -1888,14 +1968,14 @@
       <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:13" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="81" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>14</v>
@@ -1904,10 +1984,10 @@
         <v>26</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I16" s="14">
         <v>1</v>
@@ -1916,8 +1996,8 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="2:11" ht="233.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="12" t="s">
         <v>36</v>
       </c>
@@ -1928,10 +2008,10 @@
         <v>27</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I17" s="14">
         <v>1</v>
@@ -1940,44 +2020,44 @@
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="54" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="71">
+      <c r="G18" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="74"/>
+      <c r="I18" s="63">
         <v>1</v>
       </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
     </row>
     <row r="19" spans="2:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
     </row>
     <row r="20" spans="2:11" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="78" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="20" t="s">
@@ -1990,7 +2070,7 @@
         <v>29</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>15</v>
@@ -2002,8 +2082,8 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="2:11" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="20" t="s">
         <v>8</v>
       </c>
@@ -2014,7 +2094,7 @@
         <v>51</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="22">
@@ -2024,8 +2104,8 @@
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="2:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
       <c r="D22" s="20" t="s">
         <v>10</v>
       </c>
@@ -2036,7 +2116,7 @@
         <v>37</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="22">
@@ -2046,10 +2126,10 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="65" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="42" t="s">
@@ -2059,13 +2139,13 @@
         <v>16</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I23" s="45">
         <v>1</v>
@@ -2074,8 +2154,8 @@
       <c r="K23" s="42"/>
     </row>
     <row r="24" spans="2:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="42" t="s">
         <v>1</v>
       </c>
@@ -2086,7 +2166,7 @@
         <v>33</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="45">
@@ -2096,8 +2176,8 @@
       <c r="K24" s="42"/>
     </row>
     <row r="25" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="42" t="s">
         <v>4</v>
       </c>
@@ -2108,7 +2188,7 @@
         <v>25</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H25" s="42"/>
       <c r="I25" s="45">
@@ -2118,23 +2198,23 @@
       <c r="K25" s="42"/>
     </row>
     <row r="26" spans="2:11" ht="262.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="56" t="s">
-        <v>59</v>
+      <c r="C26" s="83" t="s">
+        <v>57</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E26" s="47" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H26" s="47" t="s">
         <v>52</v>
@@ -2146,10 +2226,10 @@
       <c r="K26" s="46"/>
     </row>
     <row r="27" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
       <c r="D27" s="46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>16</v>
@@ -2158,7 +2238,7 @@
         <v>37</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="H27" s="46"/>
       <c r="I27" s="49">
@@ -2168,10 +2248,10 @@
       <c r="K27" s="46"/>
     </row>
     <row r="28" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="50" t="s">
-        <v>58</v>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>16</v>
@@ -2180,7 +2260,7 @@
         <v>50</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H28" s="50"/>
       <c r="I28" s="53">
@@ -2190,153 +2270,203 @@
       <c r="K28" s="50"/>
     </row>
     <row r="29" spans="2:11" ht="342" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="24">
+      <c r="B29" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="88"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+    </row>
+    <row r="30" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="86"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+    </row>
+    <row r="31" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="86"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+    </row>
+    <row r="32" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="24">
         <v>3</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="24"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="7:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="7:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="7:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" s="24"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G42" s="1"/>
       <c r="I42" s="1"/>
     </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
+  <mergeCells count="32">
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="B26:B28"/>
@@ -2351,6 +2481,24 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="C16:C19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/doc/1St_Project_요구명세서_v1.0.0.xlsx
+++ b/doc/1St_Project_요구명세서_v1.0.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="140">
   <si>
     <t xml:space="preserve"> SEARCH01</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>DETAIL01-REDIRECT01</t>
-  </si>
-  <si>
-    <t>LSIT01-REDIRECT01</t>
   </si>
   <si>
     <t>DELETE01-PRINT01</t>
@@ -628,6 +625,42 @@
     <t>- 페이지를 숫자로 표시
 &gt; 버튼 생성
 &gt; 클릭 시 해당 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 페이지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN01-PRINT01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 꿀잠 달 이미지 출력
+- 아무곳이나 클릭해주세요 메시지 출력
+- 커비 이미지 출력
+- Z 애니메이션 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSIT01-REDIRECT01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN01-REDIRECT01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>- a태그로 전체 화면 영역 지정
+&gt; 클릭시 리스트 페이지로 이동</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -826,7 +859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,16 +1022,94 @@
     <xf numFmtId="176" fontId="1" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1016,91 +1127,19 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1616,10 +1655,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:M45"/>
+  <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1640,54 +1679,54 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:13" s="23" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="G3" s="28" t="s">
         <v>76</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>77</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="19">
@@ -1697,428 +1736,432 @@
       <c r="K3" s="18"/>
     </row>
     <row r="4" spans="2:13" ht="371.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="92" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19">
+        <v>1</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="2:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="2:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="2:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="2:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="C6" s="89" t="s">
+        <v>38</v>
+      </c>
       <c r="D6" s="9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="10"/>
+        <v>116</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="I6" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="9" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>18</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="2:13" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="9" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="2:13" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="9" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="11" t="s">
-        <v>18</v>
+      <c r="I9" s="11">
+        <v>1</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="M9" s="25"/>
     </row>
     <row r="10" spans="2:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="34" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="2:13" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37">
+        <v>3</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="74">
+        <v>1</v>
+      </c>
+      <c r="J13" s="83"/>
+      <c r="K13" s="85"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+    </row>
+    <row r="15" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="17">
+        <v>1</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="2:13" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37">
+      <c r="E16" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="40">
+        <v>1</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="2:11" ht="233.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="38"/>
+      <c r="I17" s="40">
+        <v>1</v>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="2:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="2:11" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="59"/>
+      <c r="I20" s="72">
+        <v>1</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+    </row>
+    <row r="21" spans="2:11" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+    </row>
+    <row r="22" spans="2:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="2:13" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="56" t="s">
+      <c r="E22" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="68">
-        <v>1</v>
-      </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="59"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-    </row>
-    <row r="13" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="17">
-        <v>1</v>
-      </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="40">
-        <v>1</v>
-      </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-    </row>
-    <row r="15" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="40">
-        <v>1</v>
-      </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-    </row>
-    <row r="16" spans="2:13" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="14">
-        <v>1</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="2:11" ht="233.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="14">
-        <v>1</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="74"/>
-      <c r="I18" s="63">
-        <v>1</v>
-      </c>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-    </row>
-    <row r="19" spans="2:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-    </row>
-    <row r="20" spans="2:11" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="22">
-        <v>1</v>
-      </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="2:11" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22">
-        <v>1</v>
-      </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="2:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="21"/>
       <c r="I22" s="22">
         <v>1</v>
       </c>
@@ -2126,71 +2169,71 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="42" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="45">
+      <c r="E23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22">
         <v>1</v>
       </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="66"/>
       <c r="C24" s="66"/>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22">
         <v>1</v>
       </c>
-      <c r="E24" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="45">
-        <v>1</v>
-      </c>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-    </row>
-    <row r="25" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="2:11" ht="132" x14ac:dyDescent="0.3">
+      <c r="B25" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>44</v>
+      </c>
       <c r="D25" s="42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="G25" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="H25" s="42"/>
+      <c r="H25" s="43" t="s">
+        <v>106</v>
+      </c>
       <c r="I25" s="45">
         <v>1</v>
       </c>
@@ -2198,240 +2241,276 @@
       <c r="K25" s="42"/>
     </row>
     <row r="26" spans="2:11" ht="262.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="42"/>
+      <c r="I26" s="45">
+        <v>1</v>
+      </c>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+    </row>
+    <row r="27" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="42"/>
+      <c r="I27" s="45">
+        <v>1</v>
+      </c>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+    </row>
+    <row r="28" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C28" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="46" t="s">
+      <c r="E28" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="49">
+        <v>2</v>
+      </c>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+    </row>
+    <row r="29" spans="2:11" ht="342" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="46"/>
+      <c r="I29" s="49">
+        <v>2</v>
+      </c>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+    </row>
+    <row r="30" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="50"/>
+      <c r="I30" s="53">
+        <v>2</v>
+      </c>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+    </row>
+    <row r="31" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="49">
-        <v>2</v>
-      </c>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-    </row>
-    <row r="27" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="48" t="s">
+      <c r="D31" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="58"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+    </row>
+    <row r="32" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="56"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+    </row>
+    <row r="33" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="49">
-        <v>2</v>
-      </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-    </row>
-    <row r="28" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="52" t="s">
+      <c r="E33" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="56"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+    </row>
+    <row r="34" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="53">
-        <v>2</v>
-      </c>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-    </row>
-    <row r="29" spans="2:11" ht="342" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="84" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="88"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-    </row>
-    <row r="30" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="H30" s="86"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-    </row>
-    <row r="31" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="H31" s="86"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-    </row>
-    <row r="32" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="70" t="s">
+      <c r="H34" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I32" s="24">
+      <c r="I34" s="24">
         <v>3</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="24"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
     <row r="35" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
       <c r="D35" s="7" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="I35" s="24"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G37" s="1"/>
-      <c r="I37" s="1"/>
+    <row r="36" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="2:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G38" s="1"/>
@@ -2465,40 +2544,50 @@
       <c r="G45" s="1"/>
       <c r="I45" s="1"/>
     </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D12"/>
+  <mergeCells count="34">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="C25:C27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/doc/1St_Project_요구명세서_v1.0.0.xlsx
+++ b/doc/1St_Project_요구명세서_v1.0.0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="146">
   <si>
     <t xml:space="preserve"> SEARCH01</t>
   </si>
@@ -661,6 +661,33 @@
   <si>
     <t>- a태그로 전체 화면 영역 지정
 &gt; 클릭시 리스트 페이지로 이동</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>김 민 정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>최 정 훈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>김 민 주</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>김 민 주
+홍 다 윗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍 다 윗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>김 민 주
+최 정 훈
+홍 다 윗</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -859,7 +886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1040,52 +1067,43 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,38 +1127,56 @@
     <xf numFmtId="49" fontId="1" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1655,10 +1691,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:M47"/>
+  <dimension ref="B2:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1732,14 +1768,16 @@
       <c r="I3" s="19">
         <v>1</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="18" t="s">
+        <v>141</v>
+      </c>
       <c r="K3" s="18"/>
     </row>
     <row r="4" spans="2:13" ht="371.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="66" t="s">
         <v>133</v>
       </c>
       <c r="D4" s="18" t="s">
@@ -1758,12 +1796,14 @@
       <c r="I4" s="19">
         <v>1</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="J4" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="2:13" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="18" t="s">
         <v>138</v>
       </c>
@@ -1780,14 +1820,14 @@
       <c r="I5" s="19">
         <v>1</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="2:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="89" t="s">
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+    </row>
+    <row r="6" spans="2:13" ht="322.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="68" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1808,12 +1848,14 @@
       <c r="I6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="68" t="s">
+        <v>141</v>
+      </c>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="9" t="s">
         <v>53</v>
       </c>
@@ -1832,12 +1874,12 @@
       <c r="I7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="2:13" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="9" t="s">
         <v>137</v>
       </c>
@@ -1854,12 +1896,12 @@
       <c r="I8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="2:13" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
@@ -1876,13 +1918,13 @@
       <c r="I9" s="11">
         <v>1</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="9"/>
       <c r="M9" s="25"/>
     </row>
     <row r="10" spans="2:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
@@ -1899,13 +1941,13 @@
       <c r="I10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="69"/>
       <c r="K10" s="10"/>
       <c r="M10" s="26"/>
     </row>
     <row r="11" spans="2:13" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="9" t="s">
         <v>59</v>
       </c>
@@ -1922,13 +1964,13 @@
       <c r="I11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="9"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="2:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
+    <row r="12" spans="2:13" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="34" t="s">
         <v>62</v>
       </c>
@@ -1945,572 +1987,570 @@
       <c r="I12" s="37">
         <v>3</v>
       </c>
-      <c r="J12" s="34"/>
+      <c r="J12" s="89"/>
       <c r="K12" s="34"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="83" t="s">
+    <row r="13" spans="2:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="85" t="s">
+      <c r="H13" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="74">
+      <c r="I13" s="62">
         <v>1</v>
       </c>
-      <c r="J13" s="83"/>
-      <c r="K13" s="85"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-    </row>
-    <row r="15" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="15" t="s">
+      <c r="J13" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="64"/>
+    </row>
+    <row r="14" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G14" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="17">
+      <c r="H14" s="15"/>
+      <c r="I14" s="17">
         <v>1</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="2:13" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="2:13" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="40">
+        <v>1</v>
+      </c>
+      <c r="J15" s="71"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="2:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="38" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="40">
         <v>1</v>
       </c>
-      <c r="J16" s="38"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="38"/>
     </row>
-    <row r="17" spans="2:11" ht="233.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="40">
+    <row r="17" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="14">
         <v>1</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-    </row>
-    <row r="18" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>48</v>
-      </c>
+      <c r="J17" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="2:11" ht="227.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="12" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I18" s="14">
         <v>1</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="88"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="2:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="12" t="s">
+    <row r="19" spans="2:11" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="F19" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="61">
         <v>1</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="2:11" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="59" t="s">
+      <c r="J19" s="88"/>
+      <c r="K19" s="59"/>
+    </row>
+    <row r="20" spans="2:11" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="72">
+      <c r="F20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="22">
         <v>1</v>
       </c>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-    </row>
-    <row r="21" spans="2:11" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-    </row>
-    <row r="22" spans="2:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>41</v>
-      </c>
+      <c r="J20" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="2:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22">
+        <v>1</v>
+      </c>
+      <c r="J21" s="82"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="2:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="20" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>14</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="21"/>
       <c r="I22" s="22">
         <v>1</v>
       </c>
-      <c r="J22" s="20"/>
+      <c r="J22" s="83"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="2:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22">
+    <row r="23" spans="2:11" ht="132" x14ac:dyDescent="0.3">
+      <c r="B23" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="45">
         <v>1</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-    </row>
-    <row r="24" spans="2:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22">
+      <c r="J23" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="42"/>
+    </row>
+    <row r="24" spans="2:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25" spans="2:11" ht="132" x14ac:dyDescent="0.3">
-      <c r="B25" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="67" t="s">
-        <v>44</v>
-      </c>
+      <c r="E24" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="45">
+        <v>1</v>
+      </c>
+      <c r="J24" s="85"/>
+      <c r="K24" s="42"/>
+    </row>
+    <row r="25" spans="2:11" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E25" s="43" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>106</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H25" s="42"/>
       <c r="I25" s="45">
         <v>1</v>
       </c>
-      <c r="J25" s="42"/>
+      <c r="J25" s="86"/>
       <c r="K25" s="42"/>
     </row>
-    <row r="26" spans="2:11" ht="262.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="43" t="s">
+    <row r="26" spans="2:11" ht="216" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="45">
-        <v>1</v>
-      </c>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-    </row>
-    <row r="27" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="43" t="s">
+      <c r="F26" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="49">
+        <v>2</v>
+      </c>
+      <c r="J26" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" s="46"/>
+    </row>
+    <row r="27" spans="2:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="42"/>
-      <c r="I27" s="45">
-        <v>1</v>
-      </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-    </row>
-    <row r="28" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>56</v>
-      </c>
+      <c r="F27" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="I27" s="49">
+        <v>2</v>
+      </c>
+      <c r="J27" s="92"/>
+      <c r="K27" s="46"/>
+    </row>
+    <row r="28" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
       <c r="D28" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="49">
+      <c r="F28" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="50"/>
+      <c r="I28" s="53">
         <v>2</v>
       </c>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-    </row>
-    <row r="29" spans="2:11" ht="342" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="48" t="s">
+      <c r="J28" s="93"/>
+      <c r="K28" s="50"/>
+    </row>
+    <row r="29" spans="2:11" ht="285.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="58"/>
+      <c r="J29" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="56"/>
+    </row>
+    <row r="30" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="H29" s="46"/>
-      <c r="I29" s="49">
-        <v>2</v>
-      </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-    </row>
-    <row r="30" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" s="50"/>
-      <c r="I30" s="53">
-        <v>2</v>
-      </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-    </row>
-    <row r="31" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>123</v>
+      <c r="H30" s="56"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="56"/>
+    </row>
+    <row r="31" spans="2:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="56" t="s">
+        <v>129</v>
       </c>
       <c r="E31" s="55" t="s">
         <v>124</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G31" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="55" t="s">
-        <v>98</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H31" s="56"/>
       <c r="I31" s="58"/>
-      <c r="J31" s="56"/>
+      <c r="J31" s="95"/>
       <c r="K31" s="56"/>
     </row>
-    <row r="32" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="56"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
+    <row r="32" spans="2:11" ht="312.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="24">
+        <v>3</v>
+      </c>
+      <c r="J32" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="H33" s="56"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-    </row>
-    <row r="34" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="79" t="s">
-        <v>119</v>
-      </c>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="24"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
       <c r="D34" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="24">
-        <v>3</v>
-      </c>
-      <c r="J34" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="74"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="2:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
+    <row r="35" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="7" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>118</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H35" s="8"/>
       <c r="I35" s="24"/>
-      <c r="J35" s="7"/>
+      <c r="J35" s="75"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="2:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="1"/>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G38" s="1"/>
@@ -2544,50 +2584,36 @@
       <c r="G45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="28">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J6:J12"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="J32:J35"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B6:B12"/>
     <mergeCell ref="C6:C12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
